--- a/biology/Botanique/Bolet_pomme_de_pin/Bolet_pomme_de_pin.xlsx
+++ b/biology/Botanique/Bolet_pomme_de_pin/Bolet_pomme_de_pin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet pomme de pin
 Strobilomyces strobilaceus, le bolet pomme de pin, est une espèce de champignons basidiomycètes de l'hémisphère nord du genre Strobilomyces dans la famille des Boletacées.
@@ -514,16 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Strobilomyces strobilaceus (Scop.) Berk. 1851[1]
-Un moment nommé Strobilomyces floccopus (floconneux), ce champignon a retrouvé son curieux nom binomial d'origine, bien connu de tous les mycologues : Strobilomyces strobilaceus, qui se traduit littéralement par « champignon pomme de pin en forme de pomme de pin »[2].
-Synonymes
-Boletus cinereus Pers. 1801 (synonyme)
-Boletus floccopus Pers. 1796 (synonyme)
-Boletus strobilaceus Scop. 1772 (synonyme)
-Boletus strobiliformis Vill. 1789 (synonyme)
-Strobilomyces floccopus (Vahl) P. Karst. 1882[3] (synonyme)
-Strobilomyces strobiliformis Beck 1923 (synonyme)</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strobilomyces strobilaceus (Scop.) Berk. 1851
+Un moment nommé Strobilomyces floccopus (floconneux), ce champignon a retrouvé son curieux nom binomial d'origine, bien connu de tous les mycologues : Strobilomyces strobilaceus, qui se traduit littéralement par « champignon pomme de pin en forme de pomme de pin ».
+</t>
         </is>
       </c>
     </row>
@@ -548,10 +559,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Boletus cinereus Pers. 1801 (synonyme)
+Boletus floccopus Pers. 1796 (synonyme)
+Boletus strobilaceus Scop. 1772 (synonyme)
+Boletus strobiliformis Vill. 1789 (synonyme)
+Strobilomyces floccopus (Vahl) P. Karst. 1882 (synonyme)
+Strobilomyces strobiliformis Beck 1923 (synonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bolet_pomme_de_pin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_pomme_de_pin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Chapeau de 4 à 10 cm, hémisphérique puis très longtemps convexe avant de s'aplatir, brun-gris foncé (bistre), portant de grandes écailles molles séparées par des sillons.
@@ -569,37 +623,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bolet_pomme_de_pin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_pomme_de_pin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bolet pomme de pin vient à l'automne, sous les hêtres ou parfois les conifères, souvent sur la terre remuée des chemins. Quoique présent sur plusieurs continents, il n'est pas fréquent et généralement solitaire.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -621,12 +644,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un comestible moyen à médiocre du fait de la fibrosité du pied et de son faible goût. Le chapeau rougit puis noircit à la cuisson et la consistance de sa chair est un peu caoutchouteuse.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bolet pomme de pin vient à l'automne, sous les hêtres ou parfois les conifères, souvent sur la terre remuée des chemins. Quoique présent sur plusieurs continents, il n'est pas fréquent et généralement solitaire.
 </t>
         </is>
       </c>
@@ -652,10 +677,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un comestible moyen à médiocre du fait de la fibrosité du pied et de son faible goût. Le chapeau rougit puis noircit à la cuisson et la consistance de sa chair est un peu caoutchouteuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_pomme_de_pin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_pomme_de_pin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autres Strobilomyces sont des espèces tropicales, notamment d'Amérique centrale. De ce fait et vu son aspect original, les risques de confusion sont quasi nuls.
 </t>
